--- a/testdata2.xlsx
+++ b/testdata2.xlsx
@@ -1,23 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DanWang/Desktop/FE_BOOKS/FE800/code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="19395" windowHeight="9870" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="19400" windowHeight="14180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="114210" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="21">
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Cros</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>FRC</t>
+  </si>
+  <si>
+    <t>GRM</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -51,16 +132,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -107,12 +194,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -139,14 +226,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -173,6 +261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,16 +437,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M31"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>91.431583607762889</v>
       </c>
@@ -371,7 +480,13 @@
         <v>78.025020682166939</v>
       </c>
     </row>
-    <row r="3" spans="3:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C3">
         <v>80.383212750551237</v>
       </c>
@@ -385,7 +500,10 @@
         <v>95.245683453383137</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C4">
         <v>61.454830624078205</v>
       </c>
@@ -399,7 +517,7 @@
         <v>99.030952634288823</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>-0.24872995222298699</v>
       </c>
@@ -434,7 +552,7 @@
         <v>-8.9823347268528475E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C8">
         <v>0</v>
       </c>
@@ -469,7 +587,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>99.932234122317027</v>
       </c>
@@ -504,7 +625,13 @@
         <v>99.502346990145696</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C10">
         <v>20.969996247180109</v>
       </c>
@@ -539,7 +666,10 @@
         <v>40.252613521527493</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C11">
         <v>61.984432526211734</v>
       </c>
@@ -574,7 +704,7 @@
         <v>86.453191433020166</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C12">
         <v>0</v>
       </c>
@@ -609,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>0</v>
       </c>
@@ -644,7 +774,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>99.161156839387928</v>
       </c>
@@ -679,7 +812,13 @@
         <v>96.984056752451536</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C15">
         <v>52.955185240059265</v>
       </c>
@@ -714,7 +853,10 @@
         <v>96.12369988889688</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C16">
         <v>38.433472292610091</v>
       </c>
@@ -749,7 +891,7 @@
         <v>99.200601241610514</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>0</v>
       </c>
@@ -784,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C18">
         <v>0</v>
       </c>
@@ -819,7 +961,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>1.2438613756710216E-2</v>
       </c>
@@ -854,7 +999,13 @@
         <v>3.162389251024E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C20">
         <v>0.48318709395437753</v>
       </c>
@@ -889,7 +1040,10 @@
         <v>1.9172626101747516</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C21">
         <v>1.5868772983918122</v>
       </c>
@@ -924,7 +1078,7 @@
         <v>4.9665681376437343E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>0</v>
       </c>
@@ -959,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C23">
         <v>0</v>
       </c>
@@ -994,7 +1148,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>18.342837200573641</v>
       </c>
@@ -1029,7 +1186,13 @@
         <v>0.63229830090933437</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C25">
         <v>0.12820993376895318</v>
       </c>
@@ -1064,7 +1227,10 @@
         <v>1.2916854680237109</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C26">
         <v>2.5874055121593238</v>
       </c>
@@ -1099,7 +1265,7 @@
         <v>0.31695706324178091</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C27">
         <v>0</v>
       </c>
@@ -1134,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C28">
         <v>0</v>
       </c>
@@ -1169,7 +1335,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>-17.355275814330351</v>
       </c>
@@ -1204,7 +1373,13 @@
         <v>0.36453930983964167</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C30">
         <v>0.38860297227666929</v>
       </c>
@@ -1239,7 +1414,10 @@
         <v>-2.2089480781984623</v>
       </c>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C31">
         <v>-3.1742828105511363</v>
       </c>
@@ -1282,16 +1460,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M31"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>8.6739604389636325E-3</v>
       </c>
@@ -1305,7 +1503,13 @@
         <v>5.8220276850113285E-3</v>
       </c>
     </row>
-    <row r="3" spans="3:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C3">
         <v>0.30878613898281726</v>
       </c>
@@ -1319,7 +1523,10 @@
         <v>5.0530137949464466E-3</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C4">
         <v>0.4965472156858724</v>
       </c>
@@ -1333,7 +1540,42 @@
         <v>1.2284829588475317</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>-0.24872995222298699</v>
       </c>
@@ -1368,42 +1610,45 @@
         <v>-8.9823347268528475E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>5.0804678250240673E-3</v>
       </c>
@@ -1438,7 +1683,13 @@
         <v>1.1633999128605244E-3</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C10">
         <v>0.30477956027914505</v>
       </c>
@@ -1473,7 +1724,10 @@
         <v>7.8755463197663633E-3</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C11">
         <v>0.43919642595905883</v>
       </c>
@@ -1508,7 +1762,7 @@
         <v>6.9267738553905635E-4</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C12">
         <v>0</v>
       </c>
@@ -1543,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C13">
         <v>0</v>
       </c>
@@ -1578,7 +1832,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>3.8229154547467627E-4</v>
       </c>
@@ -1613,7 +1870,13 @@
         <v>9.6247107426644749E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C15">
         <v>7.8182348594553447E-2</v>
       </c>
@@ -1648,7 +1911,10 @@
         <v>1.1179665795878601E-3</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C16">
         <v>0.90149452651281836</v>
       </c>
@@ -1683,7 +1949,7 @@
         <v>2.9803747517240535</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>0</v>
       </c>
@@ -1718,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C18">
         <v>0</v>
       </c>
@@ -1753,7 +2019,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>1.0164832572355622</v>
       </c>
@@ -1788,7 +2057,13 @@
         <v>1.0031998392517198</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C20">
         <v>0.94461360582985521</v>
       </c>
@@ -1823,7 +2098,10 @@
         <v>1.0061706907595493</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C21">
         <v>1.0378706920478533</v>
       </c>
@@ -1858,7 +2136,7 @@
         <v>0.99835715429125904</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>0</v>
       </c>
@@ -1893,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C23">
         <v>0</v>
       </c>
@@ -1928,7 +2206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>5.1644728624430439E-5</v>
       </c>
@@ -1963,7 +2244,13 @@
         <v>1.1671361840284908E-5</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C25">
         <v>2.8877905896461148E-3</v>
       </c>
@@ -1998,7 +2285,10 @@
         <v>7.9247679994426769E-5</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C26">
         <v>4.578399150988002E-3</v>
       </c>
@@ -2033,7 +2323,7 @@
         <v>6.9154421363906044E-6</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C27">
         <v>0</v>
       </c>
@@ -2068,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C28">
         <v>0</v>
       </c>
@@ -2103,7 +2393,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>-1.6534901964186641E-2</v>
       </c>
@@ -2138,7 +2431,13 @@
         <v>-3.211510613560134E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C30">
         <v>5.2498603580498675E-2</v>
       </c>
@@ -2173,7 +2472,10 @@
         <v>-6.2499384395437729E-3</v>
       </c>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C31">
         <v>-4.244909119884132E-2</v>
       </c>
@@ -2216,16 +2518,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M31"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>1.0620574643687765E-2</v>
       </c>
@@ -2239,7 +2561,13 @@
         <v>7.6924673298378295E-3</v>
       </c>
     </row>
-    <row r="3" spans="3:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C3">
         <v>0.62200636787759245</v>
       </c>
@@ -2253,7 +2581,10 @@
         <v>1.028237392658686E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C4">
         <v>1.475011503865546</v>
       </c>
@@ -2267,7 +2598,42 @@
         <v>3.0173584148040486</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C7">
         <v>-0.24872995222298699</v>
       </c>
@@ -2302,42 +2668,45 @@
         <v>-8.9823347268528475E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>1.0223880870720235E-2</v>
       </c>
@@ -2372,7 +2741,13 @@
         <v>3.4415836641550949E-3</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C10">
         <v>0.34557384461165674</v>
       </c>
@@ -2407,7 +2782,10 @@
         <v>8.2287214732839464E-3</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C11">
         <v>1.5013285529205993</v>
       </c>
@@ -2442,7 +2820,7 @@
         <v>0.16228073723751471</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C12">
         <v>0</v>
       </c>
@@ -2477,42 +2855,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>7.9465393531179859E-4</v>
       </c>
@@ -2547,7 +2928,13 @@
         <v>9.9910578545589178E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C15">
         <v>0.25369428305806591</v>
       </c>
@@ -2582,7 +2969,10 @@
         <v>1.4119135492052589E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C16">
         <v>1.3022498050021611</v>
       </c>
@@ -2617,7 +3007,7 @@
         <v>5.8543127481692645</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>0</v>
       </c>
@@ -2652,42 +3042,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>1.0164803950129753</v>
       </c>
@@ -2722,7 +3115,13 @@
         <v>1.0031636920378106</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C20">
         <v>0.94320351400966718</v>
       </c>
@@ -2757,7 +3156,10 @@
         <v>1.0061731979598205</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C21">
         <v>1.0402678386968387</v>
       </c>
@@ -2792,7 +3194,7 @@
         <v>0.99354400023169342</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>0</v>
       </c>
@@ -2827,42 +3229,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>1.0393437078661056E-4</v>
       </c>
@@ -2897,7 +3302,13 @@
         <v>3.4525905987824976E-5</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C25">
         <v>3.2707675630915698E-3</v>
       </c>
@@ -2932,7 +3343,10 @@
         <v>8.2802003545146799E-5</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C26">
         <v>1.5855887048787955E-2</v>
       </c>
@@ -2967,7 +3381,7 @@
         <v>1.6149512832034536E-3</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C27">
         <v>0</v>
       </c>
@@ -3002,42 +3416,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>-1.6584329383761878E-2</v>
       </c>
@@ -3072,7 +3489,13 @@
         <v>-3.198217943798464E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C30">
         <v>5.3525718427241256E-2</v>
       </c>
@@ -3107,7 +3530,10 @@
         <v>-6.2559999633656667E-3</v>
       </c>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C31">
         <v>-5.6123725745626657E-2</v>
       </c>
